--- a/biology/Zoologie/Dallia_admirabilis/Dallia_admirabilis.xlsx
+++ b/biology/Zoologie/Dallia_admirabilis/Dallia_admirabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dallia admirabilis est une espèce de poissons d'eau douce de la famille des Umbridae endémique de Russie.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dallia admirabilis se rencontre dans la région de Tchoukotka, notamment dans le fleuve Amgouema[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dallia admirabilis se rencontre dans la région de Tchoukotka, notamment dans le fleuve Amgouema,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dallia admirabilis est un poisson d'eau douce démersal[1],[3]. Il appartient à la famille des Umbridae (genre Dallia).
-Dallia admirabilis présente un comportement de reproduction sexuée[2]. Comme Dallia pectoralis, il est capable de respirer partiellement de l'oxygène atmosphérique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dallia admirabilis est un poisson d'eau douce démersal,. Il appartient à la famille des Umbridae (genre Dallia).
+Dallia admirabilis présente un comportement de reproduction sexuée. Comme Dallia pectoralis, il est capable de respirer partiellement de l'oxygène atmosphérique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Risque d'extinction et préservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dallia admirabilis présente un risque d’extinction faible (LC selon l'UICN)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dallia admirabilis présente un risque d’extinction faible (LC selon l'UICN).
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dallia admirabilis Chereshnev (d), 1980[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dallia admirabilis Chereshnev (d), 1980.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, admirabilis, « étonnante ou miraculeux » selon la traduction anglaise depuis l'original russe, n'a pas d'explication avérée mais pourrait faire référence à sa localité type située à une distance importante de celle de l'espèce type du genre Dallia (Dallia pectoralis)[5]. De fait D. admirabilis est l'espèce de Dallia la plus occidentale sur le continent asiatique[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, admirabilis, « étonnante ou miraculeux » selon la traduction anglaise depuis l'original russe, n'a pas d'explication avérée mais pourrait faire référence à sa localité type située à une distance importante de celle de l'espèce type du genre Dallia (Dallia pectoralis). De fait D. admirabilis est l'espèce de Dallia la plus occidentale sur le continent asiatique.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(ru) Igor A. Chereshnev et Arkadii V. Balushkin (d), « Новый вид черной рыбы Dallia admirabilis Chereshnev, sp.n. (Umbridae, Esociformes) из бассейна реки Амгуэма (Арктическая Чукотка) » [« Une nouvelle espèce de poisson noir Dallia admirabilis Chereshnev, sp.n. (Umbridae, Esociformes) du bassin de la rivière Amguema (Tchoukotka arctique) »], Voprosy ikhtiologii, Russie, vol. 20, no 6,‎ janvier 1980, p. 800-805 (ISSN 0042-8752).</t>
         </is>
